--- a/biology/Médecine/Michel_Alary/Michel_Alary.xlsx
+++ b/biology/Médecine/Michel_Alary/Michel_Alary.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Michel Alary est un médecin, chercheur et épidémiologiste canadien né en 1954.
 </t>
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Michel Alary a obtenu un doctorat en médecine à l'Université de Sherbrooke en 1974[1] ainsi qu'une maîtrise en 1987[2] et un doctorat en 1991[3] en médecine expérimentale à l'Université Laval. Il est professeur d'épidémiologie à l'Université Laval. Ses activités de recherche se focalisent sur l'épidémiologie et la prévention des infections sexuellement transmissible, notamment le VIH, chez les populations les plus vulnérables[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Michel Alary a obtenu un doctorat en médecine à l'Université de Sherbrooke en 1974 ainsi qu'une maîtrise en 1987 et un doctorat en 1991 en médecine expérimentale à l'Université Laval. Il est professeur d'épidémiologie à l'Université Laval. Ses activités de recherche se focalisent sur l'épidémiologie et la prévention des infections sexuellement transmissible, notamment le VIH, chez les populations les plus vulnérables.
 </t>
         </is>
       </c>
@@ -542,12 +556,14 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Prix du Chercheur émérite du Réseau de recherche en santé des populations du Québec (2016)[4]
-Conférence Mark Wainberg (2008)[5]
-Prix du pionnier de l'Institut de la santé publique et des populations des IRSC (2019)[6]
-Grand diplômé de l'Université Laval[7]</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Prix du Chercheur émérite du Réseau de recherche en santé des populations du Québec (2016)
+Conférence Mark Wainberg (2008)
+Prix du pionnier de l'Institut de la santé publique et des populations des IRSC (2019)
+Grand diplômé de l'Université Laval</t>
         </is>
       </c>
     </row>
